--- a/FIT5147/assessment/Exercise1/assignment-01-data-unformated.xlsx
+++ b/FIT5147/assessment/Exercise1/assignment-01-data-unformated.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xianl\Documents\FIT5147\assessment\Exercise1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C1FD5-0A1C-FC4D-BEF2-CA532AE973EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8024C27A-6DBA-4122-8355-EB7B2810EB09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2660" yWindow="-17940" windowWidth="45400" windowHeight="17940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -212,11 +218,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -532,208 +537,208 @@
   <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="19" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="19" t="s">
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="19" t="s">
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="19" t="s">
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="19" t="s">
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="21"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="20"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>2017</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>2016</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>2015</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>2014</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>2013</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>2012</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>2011</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <v>2010</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="16">
         <v>2017</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="2">
         <v>2016</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="2">
         <v>2015</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="2">
         <v>2014</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="2">
         <v>2013</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>2012</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>2011</v>
       </c>
-      <c r="S2" s="18">
+      <c r="S2" s="17">
         <v>2010</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="16">
         <v>2017</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="2">
         <v>2016</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>2015</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <v>2014</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="2">
         <v>2013</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="2">
         <v>2012</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="2">
         <v>2011</v>
       </c>
-      <c r="AA2" s="18">
+      <c r="AA2" s="17">
         <v>2010</v>
       </c>
-      <c r="AB2" s="17">
+      <c r="AB2" s="16">
         <v>2017</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="2">
         <v>2016</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="2">
         <v>2015</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="2">
         <v>2014</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="2">
         <v>2013</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="2">
         <v>2012</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2" s="2">
         <v>2011</v>
       </c>
-      <c r="AI2" s="18">
+      <c r="AI2" s="17">
         <v>2010</v>
       </c>
-      <c r="AJ2" s="17">
+      <c r="AJ2" s="16">
         <v>2017</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="2">
         <v>2016</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="2">
         <v>2015</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="2">
         <v>2014</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="2">
         <v>2013</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="2">
         <v>2012</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="2">
         <v>2011</v>
       </c>
-      <c r="AQ2" s="18">
+      <c r="AQ2" s="17">
         <v>2010</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>143.51499999999999</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>-11.843</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.8387</v>
       </c>
       <c r="E3" s="1">
@@ -754,10 +759,10 @@
       <c r="J3" s="1">
         <v>0.55430000000000001</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="6">
         <v>0.56289999999999996</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0.47320000000000001</v>
       </c>
       <c r="M3" s="1">
@@ -778,10 +783,10 @@
       <c r="R3" s="1">
         <v>0.39119999999999999</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="6">
         <v>0.37340000000000001</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>0.68230000000000002</v>
       </c>
       <c r="U3" s="1">
@@ -802,10 +807,10 @@
       <c r="Z3" s="1">
         <v>0.40250000000000002</v>
       </c>
-      <c r="AA3" s="7">
+      <c r="AA3" s="6">
         <v>0.39779999999999999</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>0.44319999999999998</v>
       </c>
       <c r="AC3" s="1">
@@ -826,8 +831,8 @@
       <c r="AH3" s="1">
         <v>0.19339999999999999</v>
       </c>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="6">
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="5">
         <v>0.1578</v>
       </c>
       <c r="AK3" s="1">
@@ -848,21 +853,21 @@
       <c r="AP3" s="1">
         <v>8.1199999999999994E-2</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3" s="6">
         <v>5.33E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>147.898</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>18.937000000000001</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0.21229999999999999</v>
       </c>
       <c r="E4" s="1">
@@ -879,8 +884,8 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6">
+      <c r="K4" s="6"/>
+      <c r="L4" s="5">
         <v>0.56320000000000003</v>
       </c>
       <c r="M4" s="1">
@@ -899,8 +904,8 @@
         <v>0.45979999999999999</v>
       </c>
       <c r="R4" s="1"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="6">
+      <c r="S4" s="6"/>
+      <c r="T4" s="5">
         <v>0.2321</v>
       </c>
       <c r="U4" s="1">
@@ -917,8 +922,8 @@
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="6">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="5">
         <v>0.34889999999999999</v>
       </c>
       <c r="AC4" s="1">
@@ -937,8 +942,8 @@
         <v>0.2482</v>
       </c>
       <c r="AH4" s="1"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="6">
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="5">
         <v>0.80130000000000001</v>
       </c>
       <c r="AK4" s="1">
@@ -957,19 +962,19 @@
         <v>0.28610000000000002</v>
       </c>
       <c r="AP4" s="1"/>
-      <c r="AQ4" s="7"/>
+      <c r="AQ4" s="6"/>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>144.08099999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>-10.321</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.75339999999999996</v>
       </c>
       <c r="E5" s="1">
@@ -986,8 +991,8 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="6">
+      <c r="K5" s="6"/>
+      <c r="L5" s="5">
         <v>0.75229999999999997</v>
       </c>
       <c r="M5" s="1">
@@ -1006,16 +1011,16 @@
         <v>6.3399999999999998E-2</v>
       </c>
       <c r="R5" s="1"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="5"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="6">
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="5">
         <v>0.71340000000000003</v>
       </c>
       <c r="AC5" s="1">
@@ -1034,8 +1039,8 @@
         <v>0.17330000000000001</v>
       </c>
       <c r="AH5" s="1"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="6">
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="5">
         <v>9.3399999999999997E-2</v>
       </c>
       <c r="AK5" s="1">
@@ -1054,19 +1059,19 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="AP5" s="1"/>
-      <c r="AQ5" s="7"/>
+      <c r="AQ5" s="6"/>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>150.44399999999999</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>-20.414000000000001</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0.1245</v>
       </c>
       <c r="E6" s="1">
@@ -1087,10 +1092,10 @@
       <c r="J6" s="1">
         <v>0.1023</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="6">
         <v>0.10009999999999999</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <v>0.77890000000000004</v>
       </c>
       <c r="M6" s="1">
@@ -1111,10 +1116,10 @@
       <c r="R6" s="1">
         <v>0.23449999999999999</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="6">
         <v>0.2278</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>0.37</v>
       </c>
       <c r="U6" s="1">
@@ -1135,10 +1140,10 @@
       <c r="Z6" s="1">
         <v>0.26919999999999999</v>
       </c>
-      <c r="AA6" s="7">
+      <c r="AA6" s="6">
         <v>0.2671</v>
       </c>
-      <c r="AB6" s="6">
+      <c r="AB6" s="5">
         <v>0.67979999999999996</v>
       </c>
       <c r="AC6" s="1">
@@ -1159,10 +1164,10 @@
       <c r="AH6" s="1">
         <v>0.15970000000000001</v>
       </c>
-      <c r="AI6" s="7">
+      <c r="AI6" s="6">
         <v>0.1595</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="5">
         <v>0.4123</v>
       </c>
       <c r="AK6" s="1">
@@ -1183,21 +1188,21 @@
       <c r="AP6" s="1">
         <v>0.29010000000000002</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AQ6" s="6">
         <v>0.26989999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>143.786</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>-13.106999999999999</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0.94230000000000003</v>
       </c>
       <c r="E7" s="1">
@@ -1218,10 +1223,10 @@
       <c r="J7" s="1">
         <v>0.2913</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="6">
         <v>0.14449999999999999</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>0.4834</v>
       </c>
       <c r="M7" s="1">
@@ -1242,10 +1247,10 @@
       <c r="R7" s="1">
         <v>0.38990000000000002</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>0.3765</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>0.57230000000000003</v>
       </c>
       <c r="U7" s="1">
@@ -1266,18 +1271,18 @@
       <c r="Z7" s="1">
         <v>0.49669999999999997</v>
       </c>
-      <c r="AA7" s="7">
+      <c r="AA7" s="6">
         <v>0.4919</v>
       </c>
-      <c r="AB7" s="6"/>
+      <c r="AB7" s="5"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="6">
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="5">
         <v>0.37230000000000002</v>
       </c>
       <c r="AK7" s="1">
@@ -1298,29 +1303,23 @@
       <c r="AP7" s="1">
         <v>0.34670000000000001</v>
       </c>
-      <c r="AQ7" s="7">
+      <c r="AQ7" s="6">
         <v>0.3019</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>146.589</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>-17.981000000000002</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6">
+      <c r="D8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5">
         <v>0.86450000000000005</v>
       </c>
       <c r="M8" s="1">
@@ -1341,10 +1340,10 @@
       <c r="R8" s="1">
         <v>0.41370000000000001</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="6">
         <v>0.40210000000000001</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>0.2056</v>
       </c>
       <c r="U8" s="1">
@@ -1365,18 +1364,12 @@
       <c r="Z8" s="1">
         <v>0.13650000000000001</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="6">
         <v>0.12870000000000001</v>
       </c>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="6">
+      <c r="AB8" s="3"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="5">
         <v>0.67869999999999997</v>
       </c>
       <c r="AK8" s="1">
@@ -1397,21 +1390,21 @@
       <c r="AP8" s="1">
         <v>0.49009999999999998</v>
       </c>
-      <c r="AQ8" s="7">
+      <c r="AQ8" s="6">
         <v>0.4798</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9">
         <v>145.04300000000001</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>-14.382999999999999</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0.67889999999999995</v>
       </c>
       <c r="E9" s="1">
@@ -1432,18 +1425,14 @@
       <c r="J9" s="1">
         <v>0.39979999999999999</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>0.40339999999999998</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="6">
+      <c r="S9" s="6"/>
+      <c r="T9" s="5">
         <v>0.49209999999999998</v>
       </c>
       <c r="U9" s="1">
@@ -1464,10 +1453,10 @@
       <c r="Z9" s="1">
         <v>0.46779999999999999</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="6">
         <v>0.45989999999999998</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <v>0.32119999999999999</v>
       </c>
       <c r="AC9" s="1">
@@ -1488,8 +1477,8 @@
       <c r="AH9" s="1">
         <v>0.15029999999999999</v>
       </c>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="6">
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="5">
         <v>0.4012</v>
       </c>
       <c r="AK9" s="1">
@@ -1510,116 +1499,116 @@
       <c r="AP9" s="1">
         <v>0.30099999999999999</v>
       </c>
-      <c r="AQ9" s="7">
+      <c r="AQ9" s="6">
         <v>0.25559999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.5">
+      <c r="A10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>145.715</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>-16.091000000000001</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.65229999999999999</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>0.6321</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>0.60119999999999996</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0.60029999999999994</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>0.58889999999999998</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="8">
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="7">
         <v>0.48230000000000001</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <v>0.45319999999999999</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <v>0.40889999999999999</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <v>0.39839999999999998</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>0.3866</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="Q10" s="8">
         <v>0.32450000000000001</v>
       </c>
-      <c r="R10" s="9"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="8">
+      <c r="R10" s="8"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="7">
         <v>0.45319999999999999</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="8">
         <v>0.43209999999999998</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="8">
         <v>0.4098</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="8">
         <v>0.4078</v>
       </c>
-      <c r="X10" s="9">
+      <c r="X10" s="8">
         <v>0.39929999999999999</v>
       </c>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="8">
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="7">
         <v>0.20449999999999999</v>
       </c>
-      <c r="AC10" s="9">
+      <c r="AC10" s="8">
         <v>0.15559999999999999</v>
       </c>
-      <c r="AD10" s="9">
+      <c r="AD10" s="8">
         <v>0.14560000000000001</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AE10" s="8">
         <v>1.488</v>
       </c>
-      <c r="AF10" s="9">
+      <c r="AF10" s="8">
         <v>0.1384</v>
       </c>
-      <c r="AG10" s="9">
+      <c r="AG10" s="8">
         <v>0.13100000000000001</v>
       </c>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="8">
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="7">
         <v>0.39</v>
       </c>
-      <c r="AK10" s="9">
+      <c r="AK10" s="8">
         <v>0.1045</v>
       </c>
-      <c r="AL10" s="9">
+      <c r="AL10" s="8">
         <v>4.3400000000000001E-2</v>
       </c>
-      <c r="AM10" s="9">
+      <c r="AM10" s="8">
         <v>4.19E-2</v>
       </c>
-      <c r="AN10" s="9">
+      <c r="AN10" s="8">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="AO10" s="9">
+      <c r="AO10" s="8">
         <v>3.7100000000000001E-2</v>
       </c>
-      <c r="AP10" s="9"/>
-      <c r="AQ10" s="10"/>
+      <c r="AP10" s="8"/>
+      <c r="AQ10" s="9"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:AQ10">
